--- a/MP3_Workplan_Hellen_Kahle_Spring.xlsx
+++ b/MP3_Workplan_Hellen_Kahle_Spring.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="525" windowWidth="22695" windowHeight="11445"/>
+    <workbookView xWindow="640" yWindow="520" windowWidth="23900" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -108,12 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,17 +423,17 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -462,7 +467,7 @@
         <v>41969</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -479,7 +484,7 @@
         <v>41973</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -496,75 +501,114 @@
         <v>41973</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
       <c r="D5" s="2">
         <v>41975</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
       <c r="D6" s="2">
         <v>41975</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="4">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
       <c r="D7" s="2">
         <v>41976</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
       <c r="D8" s="2">
         <v>41976</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="4">
+        <v>41976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="D9" s="2">
         <v>41977</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="5">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>